--- a/biology/Botanique/Hibiscus_moscheutos/Hibiscus_moscheutos.xlsx
+++ b/biology/Botanique/Hibiscus_moscheutos/Hibiscus_moscheutos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Hibiscus des marais (Hibiscus moscheutos) est une espèce de plantes vivaces ligneuses à grandes fleurs (jusqu'à 25 cm) de la famille des Malvacées, originaire d'Amérique du Nord. 
 </t>
@@ -511,7 +523,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'état naturel, cet hibiscus se trouve surtout dans les zones humides du sud-est des États-Unis, mais on la trouve jusqu'en Ontario au nord.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante fait de grandes tiges (1,25 à 1,5 m), se développant à la fin du printemps quand le sol est bien réchauffé.  Sa couleur varie du blanc pur au rose profond, avec un cœur fuchsia à brun.
 Les horticulteurs ont produit de nombreux cultivars depuis la fin du XIXe siècle.
@@ -576,7 +592,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Valides selon ITIS :
 Hibiscus moscheutos var. lasiocarpos (Cav.) O.J.Blanchard
